--- a/PC-ORD/Original Data/benthic2.xlsx
+++ b/PC-ORD/Original Data/benthic2.xlsx
@@ -1,26 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="20730"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="7" rupBuild="27510"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cedar\Documents\GitHub\Thesis\PC-ORD\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Cedar/Desktop/Thesis/PC-ORD/Original Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C97E1498-9B89-40FB-859C-C87664021462}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="25600" windowHeight="14100"/>
   </bookViews>
   <sheets>
     <sheet name="benthic2" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="0" concurrentCalc="0"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{79F54976-1DA5-4618-B147-4CDE4B953A38}">
+      <x14:workbookPr defaultImageDpi="32767"/>
+    </ext>
+    <ext xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" uri="{7523E5D3-25F3-A5E0-1632-64F254C22452}">
+      <mx:ArchID Flags="2"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="38">
   <si>
     <t>Stream</t>
   </si>
@@ -131,12 +138,15 @@
   </si>
   <si>
     <t>YearTreatQ</t>
+  </si>
+  <si>
+    <t>BenthoTotal</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -970,16 +980,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F21"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="L24" sqref="L24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>15</v>
       </c>
@@ -998,8 +1008,11 @@
       <c r="F1" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>16</v>
       </c>
@@ -1019,7 +1032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>17</v>
       </c>
@@ -1038,8 +1051,11 @@
       <c r="F3">
         <v>0</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3">
+        <v>4.5925925925925898E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>18</v>
       </c>
@@ -1058,8 +1074,11 @@
       <c r="F4">
         <v>0</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4">
+        <v>0.58399999999999996</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>19</v>
       </c>
@@ -1078,8 +1097,11 @@
       <c r="F5">
         <v>0</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5">
+        <v>0.80233333333333301</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>20</v>
       </c>
@@ -1098,8 +1120,11 @@
       <c r="F6">
         <v>0</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6">
+        <v>3.2222222222222201E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>21</v>
       </c>
@@ -1118,8 +1143,11 @@
       <c r="F7">
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7">
+        <v>1.13636363636363E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>22</v>
       </c>
@@ -1138,8 +1166,11 @@
       <c r="F8">
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8">
+        <v>0.17599999999999999</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>23</v>
       </c>
@@ -1158,8 +1189,11 @@
       <c r="F9">
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G9">
+        <v>0.35156666666666597</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>24</v>
       </c>
@@ -1178,8 +1212,11 @@
       <c r="F10">
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G10">
+        <v>7.0000000000000001E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>25</v>
       </c>
@@ -1198,8 +1235,11 @@
       <c r="F11">
         <v>0</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G11">
+        <v>3.16666666666666E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>26</v>
       </c>
@@ -1218,8 +1258,11 @@
       <c r="F12">
         <v>0</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G12">
+        <v>0.134333333333333</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>27</v>
       </c>
@@ -1238,8 +1281,11 @@
       <c r="F13">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G13">
+        <v>0.421333333333333</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>28</v>
       </c>
@@ -1258,8 +1304,11 @@
       <c r="F14">
         <v>0</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G14">
+        <v>0.177666666666666</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>29</v>
       </c>
@@ -1278,8 +1327,11 @@
       <c r="F15">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G15">
+        <v>0.16800000000000001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>30</v>
       </c>
@@ -1298,8 +1350,11 @@
       <c r="F16">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G16">
+        <v>0.311</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>31</v>
       </c>
@@ -1318,8 +1373,11 @@
       <c r="F17">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G17">
+        <v>0.51666666666666605</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>32</v>
       </c>
@@ -1338,8 +1396,11 @@
       <c r="F18">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G18">
+        <v>0.23399999999999899</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>33</v>
       </c>
@@ -1358,8 +1419,11 @@
       <c r="F19">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G19">
+        <v>0.15366666666666601</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>34</v>
       </c>
@@ -1378,8 +1442,11 @@
       <c r="F20">
         <v>0</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G20">
+        <v>0.30099999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>35</v>
       </c>
@@ -1397,6 +1464,9 @@
       </c>
       <c r="F21">
         <v>1</v>
+      </c>
+      <c r="G21">
+        <v>0.60666666666666602</v>
       </c>
     </row>
   </sheetData>

--- a/PC-ORD/Original Data/benthic2.xlsx
+++ b/PC-ORD/Original Data/benthic2.xlsx
@@ -983,8 +983,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:G21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="L24" sqref="L24"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1052,7 +1052,7 @@
         <v>0</v>
       </c>
       <c r="G3">
-        <v>4.5925925925925898E-2</v>
+        <v>4.5925925999999999E-2</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.2">
@@ -1075,7 +1075,7 @@
         <v>0</v>
       </c>
       <c r="G4">
-        <v>0.58399999999999996</v>
+        <v>3.2222222000000002E-2</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.2">
@@ -1098,7 +1098,7 @@
         <v>0</v>
       </c>
       <c r="G5">
-        <v>0.80233333333333301</v>
+        <v>1.1363636E-2</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -1121,7 +1121,7 @@
         <v>0</v>
       </c>
       <c r="G6">
-        <v>3.2222222222222201E-2</v>
+        <v>7.0000000000000001E-3</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -1144,7 +1144,7 @@
         <v>0</v>
       </c>
       <c r="G7">
-        <v>1.13636363636363E-2</v>
+        <v>3.1666667000000003E-2</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -1167,7 +1167,7 @@
         <v>0</v>
       </c>
       <c r="G8">
-        <v>0.17599999999999999</v>
+        <v>0.177666667</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -1190,7 +1190,7 @@
         <v>0</v>
       </c>
       <c r="G9">
-        <v>0.35156666666666597</v>
+        <v>0.16800000000000001</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.2">
@@ -1213,7 +1213,7 @@
         <v>0</v>
       </c>
       <c r="G10">
-        <v>7.0000000000000001E-3</v>
+        <v>0.23400000000000001</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.2">
@@ -1236,7 +1236,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>3.16666666666666E-2</v>
+        <v>0.15366666700000001</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.2">
@@ -1259,7 +1259,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.134333333333333</v>
+        <v>0.12633333299999999</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.2">
@@ -1282,7 +1282,7 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>0.421333333333333</v>
+        <v>0.106333333</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.2">
@@ -1305,7 +1305,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.177666666666666</v>
+        <v>0.58399999999999996</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.2">
@@ -1328,7 +1328,7 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>0.16800000000000001</v>
+        <v>0.80233333299999998</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.2">
@@ -1351,7 +1351,7 @@
         <v>0</v>
       </c>
       <c r="G16">
-        <v>0.311</v>
+        <v>0.17599999999999999</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.2">
@@ -1374,7 +1374,7 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.51666666666666605</v>
+        <v>0.351566667</v>
       </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.2">
@@ -1397,7 +1397,7 @@
         <v>0</v>
       </c>
       <c r="G18">
-        <v>0.23399999999999899</v>
+        <v>0.134333333</v>
       </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.2">
@@ -1420,7 +1420,7 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.15366666666666601</v>
+        <v>0.42133333299999998</v>
       </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.2">
@@ -1443,7 +1443,7 @@
         <v>0</v>
       </c>
       <c r="G20">
-        <v>0.30099999999999999</v>
+        <v>0.311</v>
       </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.2">
@@ -1466,7 +1466,7 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.60666666666666602</v>
+        <v>0.51666666699999997</v>
       </c>
     </row>
   </sheetData>
